--- a/biology/Biochimie/Glycosyltransférase/Glycosyltransférase.xlsx
+++ b/biology/Biochimie/Glycosyltransférase/Glycosyltransférase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Glycosyltransf%C3%A9rase</t>
+          <t>Glycosyltransférase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les glycosyltransférases (ou glycosyl-transférases, abrégé GT) sont des enzymes avec un numéro E.C. de type 2.4.x.x, qui catalysent le transfert d'un monosaccharide, depuis un sucre activé (donneur), généralement par un phosphate, vers une molécule accepteur (le plus souvent un alcool ou une amine).
 Le produit d'une telle réaction peut être un oligosaccharide ou un polysaccharide; bien que certaines glycosyltransférases catalysent le transfert de sucres vers un phosphate inorganique, ou les libèrent dans l'eau[réf. nécessaire].
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Glycosyltransf%C3%A9rase</t>
+          <t>Glycosyltransférase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Mécanisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les glycosyltransférases, par analogie avec les glycosylhydrolases, catalysent le transfert de l'ose selon un mécanisme qui conserve (rétention) ou inverse la configuration du carbone glycosidique. La plupart des glycosyltransférases sont métallo-dépendantes, envers le magnésium, ou le manganèse, qui jouent le rôle d'acides de Lewis en acceptant les électrons du groupe activateur.
 Les glycosyltransférases des mammifères ne reconnaissent que 9 composés nucléotides-sucres différents comme substrat : l'UDP-glucose, l'UDP-galactose, l'UDP-GlcNAc, l'UDP-GalNAc, l'UDP-xylose, l'UDP-acide glucuronique, le GDP-mannose, le GDP-fucose et le CMP-acide sialique. La gamme de nucléotides donneurs est variable d'une espèce à l'autre. De nombreuses glycosyltransférases, chez divers organismes, utilisent des sucres activés par leur liaison à des lipides, notamment des terpènoides tel que les dolichols ou les polyprénols.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Glycosyltransf%C3%A9rase</t>
+          <t>Glycosyltransférase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Classification par séquence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les classifications fondées sur les homologies de séquence se sont montrées efficaces pour prédire la fonction des protéines. CAZy[1] la base de données des enzymes actives sur les glucides, fait état de plus de 90 familles de glycosyltransférases. Le même repliement spatial est attendu pour l'ensemble des enzymes au sein d'une même famille.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les classifications fondées sur les homologies de séquence se sont montrées efficaces pour prédire la fonction des protéines. CAZy la base de données des enzymes actives sur les glucides, fait état de plus de 90 familles de glycosyltransférases. Le même repliement spatial est attendu pour l'ensemble des enzymes au sein d'une même famille.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Glycosyltransf%C3%A9rase</t>
+          <t>Glycosyltransférase</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,10 +594,12 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'inverse des glycosylhydrolases, la diversité de structures tridimensionelles rencontrée pour glycosyltransférases semble réduite. Selon la base de données de classification des structures de protéines, seuls 3 types de repliement sont observés pour les glycosyltransférases[2].
-Récemment, un quatrième type de repliement a été découvert pour l'enzyme impliquée dans la biosynthèse de polymère de NAG-NAM, au sein du peptidoglycane[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'inverse des glycosylhydrolases, la diversité de structures tridimensionelles rencontrée pour glycosyltransférases semble réduite. Selon la base de données de classification des structures de protéines, seuls 3 types de repliement sont observés pour les glycosyltransférases.
+Récemment, un quatrième type de repliement a été découvert pour l'enzyme impliquée dans la biosynthèse de polymère de NAG-NAM, au sein du peptidoglycane.
 </t>
         </is>
       </c>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Glycosyltransf%C3%A9rase</t>
+          <t>Glycosyltransférase</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Inhibiteurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux inhibiteurs des glycosyltransférases sont connus. Nombre sont des substances naturelles, comme la moenomycine, un inhibiteur des glycosyltransférases du peptidoglycane, les nikkomycines, inhibiteur de la synthèse de la chitine, et les échinocandines, inhibiteurs des b-1,3-glucane syntases fongiques. Certain inhibiteurs sont utilisés comme antibiotiques. Moenomycine est utilisée comme complément alimentaire pour animaux. La Caspofungine a été développée à partir des echinocandines, est sert actuellement comme agent antifongique. L'Éthambutol est un inhibiteur des arabinotransférases mycobactériennes et est utilisé dans le traitement de la tuberculose. Le Lufenuron est un inhibiteur des chitine-syntases des insectes et est utilisé contre les puces chez l'animal.
 </t>
@@ -623,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Glycosyltransf%C3%A9rase</t>
+          <t>Glycosyltransférase</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,7 +661,9 @@
           <t>Déterminants des groupes sanguins</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le système de groupes sanguins ABO est déterminé par le type de glycosyltransférase exprimées chez un individu.
 Le gène codant la glycosyltransférase déterminant le groupe sanguin à trois formes alléliques principales: A, B et O. L'allèle A code une alpha-N-acétylgalactose transférase, l'allèle B code galactosyltransférase, et l'allèle O porte une délétion dans l'exon 6, qui la rend inactive. L'accepteur reconnu par cette enzyme est une chaîne oligosaccharidique portée par des lipides ou des protéines qui correspond à l'antigène du groupe O, appelé antigène H.
@@ -657,7 +679,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Glycosyltransf%C3%A9rase</t>
+          <t>Glycosyltransférase</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,7 +697,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les glycosyltransférases ont été largement utilisées dans la synthèse de glycoconjugués complexes. Différentes approches ont été mises en place :
 utilisation d'enzymes purifiées, soit depuis leur organisme d'origine, soit produite de manière recombinante ;
